--- a/UML_GiocoDadi.xlsx
+++ b/UML_GiocoDadi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a033020b98fa682f/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a033020b98fa682f/Desktop/GiocoDadiCsharp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="8_{9E046C6E-05C8-441C-AA52-F2D21C1BEACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29CD9C34-50C8-490C-800D-02E92366C054}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{158CB75A-06EC-4FDE-ACC2-88705426E74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC1B966-4531-4B54-9CF9-3CDE31E06546}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30BB7021-6CC8-4235-BAB3-E64C34D8961A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30BB7021-6CC8-4235-BAB3-E64C34D8961A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Dado</t>
   </si>
@@ -71,98 +71,104 @@
     <t xml:space="preserve"> + ResettaPunteggio()</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetPoints()</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + operator &lt; (Dado d1, Dado d2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetName()</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + GetNum</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetDado()</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + Giocatore(string nome)</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetNumero()</t>
-  </si>
-  <si>
     <t>Gara</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Giocatore g1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -string nome;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - int punteggioCorrente;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Dado dado;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Giocatore g2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -int numeroPartite;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -int buffer;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -string winner;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +Gara(string _g1, string _g2, int _numeroPartite)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +FineGara()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +Round()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +GameWin()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +ResetGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G1GetName()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G2GetName()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G1GetPoints()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G2GetPoints()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G1GetNum()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +G2GetNum()</t>
-  </si>
-  <si>
     <t>Partita</t>
   </si>
   <si>
     <t xml:space="preserve"> + AvviaMatch(Giocatore g1, Giocatore g2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetDado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetNumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - punteggioCorrente;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dado;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - g2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - g1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numeroPartite;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - buffer;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - winner;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Gara(string _g1, string _g2, int _numeroPartite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + FineGara()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Round()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GameWin()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ResetGame()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetPoints()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetPoints()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetNum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetNum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetPartiteRimanenti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetWinner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +215,25 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -353,71 +378,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,10 +394,85 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,10 +491,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,373 +810,399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCFF0F2-31C5-407C-862D-EF510C204673}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="6"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="11"/>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="11"/>
-      <c r="P11" s="1"/>
+      <c r="I11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="11"/>
+      <c r="I12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="11"/>
+      <c r="I13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="11"/>
+      <c r="I14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2"/>
-      <c r="I15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="11"/>
-      <c r="P15" s="29"/>
+      <c r="I15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2"/>
-      <c r="I16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="9:14">
-      <c r="I17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="9:14">
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
+      <c r="I16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="9:15">
+      <c r="I17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="9:15">
+      <c r="I18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="9:15">
+      <c r="I19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="25" spans="9:15">
+      <c r="K25" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
+  <mergeCells count="42">
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I17:N17"/>
     <mergeCell ref="I12:N12"/>
     <mergeCell ref="I13:N13"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="I15:N15"/>
     <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="O2:S2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
@@ -1149,18 +1213,12 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="I4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UML_GiocoDadi.xlsx
+++ b/UML_GiocoDadi.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a033020b98fa682f/Desktop/GiocoDadiCsharp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{158CB75A-06EC-4FDE-ACC2-88705426E74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AC1B966-4531-4B54-9CF9-3CDE31E06546}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{158CB75A-06EC-4FDE-ACC2-88705426E74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{275E83E9-0147-4AE3-9E77-6EE4D82D3861}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30BB7021-6CC8-4235-BAB3-E64C34D8961A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,24 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+  <si>
+    <t>Giocatore</t>
+  </si>
   <si>
     <t>Dado</t>
   </si>
   <si>
-    <t>Giocatore</t>
+    <t>Gara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - nome;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - randomNumber;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - g1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - punteggioCorrente;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - num;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - g2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - dado;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - facce;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - numeroPartite;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Giocatore(string nome)</t>
   </si>
   <si>
     <t xml:space="preserve"> + Dado(int _facce)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - num;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - randomNumber;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - facce;</t>
+    <t xml:space="preserve"> - buffer;</t>
   </si>
   <si>
     <t xml:space="preserve"> + IncreasePoints()</t>
@@ -62,106 +89,97 @@
     <t xml:space="preserve"> + LancioDado()</t>
   </si>
   <si>
+    <t xml:space="preserve"> - winner;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + LanciaDado()</t>
   </si>
   <si>
     <t xml:space="preserve"> + operator &gt; (Dado d1, Dado d2)</t>
   </si>
   <si>
+    <t xml:space="preserve"> + Gara(string _g1, string _g2, int _numeroPartite)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> + ResettaPunteggio()</t>
   </si>
   <si>
     <t xml:space="preserve"> + operator &lt; (Dado d1, Dado d2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetNum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Giocatore(string nome)</t>
-  </si>
-  <si>
-    <t>Gara</t>
-  </si>
-  <si>
-    <t>Partita</t>
+    <t xml:space="preserve"> + FineGara()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetPoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Round()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GameWin()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetDado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ResetGame()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetNumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetName()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetName()</t>
+  </si>
+  <si>
+    <t>Dado OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetPoints()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetPoints()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G1GetNum()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + G2GetNum()</t>
   </si>
   <si>
     <t xml:space="preserve"> + AvviaMatch(Giocatore g1, Giocatore g2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> + GetPoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GetName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GetDado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GetNumero</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - punteggioCorrente;   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - nome;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - dado;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - g2;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - g1;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - numeroPartite;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - buffer;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - winner;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Gara(string _g1, string _g2, int _numeroPartite)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + FineGara()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Round()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GameWin()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + ResetGame()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G1GetName()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G2GetName()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G1GetPoints()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G2GetPoints()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G1GetNum()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + G2GetNum()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GetPartiteRimanenti</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + GetWinner</t>
+    <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetPartiteRimanenti					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetWinner					</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;&lt;Proprietà&gt;&gt; + GetNum : int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiungere operatore confronto tra giocatori </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Giocatore(string _nome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + GetNumero()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;&lt;Proprietà&gt;&gt; + GetName: string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;&lt;Proprietà&gt;&gt; + GetDado: Dado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;&lt;Proprietà&gt;&gt; + GetPoints: int</t>
   </si>
 </sst>
 </file>
@@ -249,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -374,38 +392,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -421,61 +591,77 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -810,400 +996,789 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCFF0F2-31C5-407C-862D-EF510C204673}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="4" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="4" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="26" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="18" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="16" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="8"/>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="8"/>
+      <c r="I12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="24"/>
+      <c r="I15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="16" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="2"/>
-      <c r="I15" s="16" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="6"/>
+      <c r="I17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="2"/>
-      <c r="I16" s="16" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="I18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="9:15">
-      <c r="I17" s="16" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="I19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="9:15">
-      <c r="I18" s="16" t="s">
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="I20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="9:15">
-      <c r="I19" s="17" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="25" spans="9:15">
-      <c r="K25" s="34"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="54"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O1:S1"/>
+  <mergeCells count="82">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="I20:N20"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D1:H1"/>
@@ -1219,6 +1794,34 @@
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I4:N4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/UML_GiocoDadi.xlsx
+++ b/UML_GiocoDadi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\OneDrive\Desktop\GiocoDadiCsharp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a033020b98fa682f/Desktop/GiocoDadiCsharp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E4CA9D-AFC8-4136-8A4C-CAD8F17967DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{62E4CA9D-AFC8-4136-8A4C-CAD8F17967DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B55121CA-7812-4B8B-9E82-945106F55D07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30BB7021-6CC8-4235-BAB3-E64C34D8961A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Giocatore</t>
   </si>
@@ -122,9 +122,6 @@
     <t xml:space="preserve"> + G2GetName()</t>
   </si>
   <si>
-    <t>Dado OK</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + G1GetPoints()</t>
   </si>
   <si>
@@ -161,13 +158,7 @@
     <t xml:space="preserve">  &lt;&lt;Proprietà&gt;&gt; + GetWinner	: int				</t>
   </si>
   <si>
-    <t>Gara OK</t>
-  </si>
-  <si>
     <t xml:space="preserve"> + operator &gt;(Giocatore g1, Giocatore g2)</t>
-  </si>
-  <si>
-    <t>Giocatore OK</t>
   </si>
 </sst>
 </file>
@@ -478,23 +469,82 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,121 +553,61 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -957,7 +947,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,436 +958,453 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="7"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="4"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="38"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="44"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="39" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="49"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="27"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="27"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="45"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="51"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A14:D14"/>
@@ -1409,36 +1416,7 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
